--- a/lib/tasks/DiknasConversionItem.xlsx
+++ b/lib/tasks/DiknasConversionItem.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="47">
   <si>
     <t>12BIBL01</t>
   </si>
@@ -90,6 +90,9 @@
   </si>
   <si>
     <t>HSENGT01</t>
+  </si>
+  <si>
+    <t>HSSERE01</t>
   </si>
   <si>
     <t>HSSPAN01</t>
@@ -1136,10 +1139,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F79"/>
+  <dimension ref="A1:F87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35:XFD35"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1147,20 +1150,21 @@
     <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s">
         <v>29</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" t="s">
         <v>28</v>
-      </c>
-      <c r="C1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1171,13 +1175,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F2">
         <f>VLOOKUP(E2,[1]Sheet1!$B$2:$G$17,6,FALSE)</f>
@@ -1192,13 +1196,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F3">
         <f>VLOOKUP(E3,[1]Sheet1!$B$2:$G$17,6,FALSE)</f>
@@ -1213,7 +1217,7 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -1231,13 +1235,13 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F5">
         <f>VLOOKUP(E5,[1]Sheet1!$B$2:$G$17,6,FALSE)</f>
@@ -1252,13 +1256,13 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F6">
         <f>VLOOKUP(E6,[1]Sheet1!$B$2:$G$17,6,FALSE)</f>
@@ -1273,13 +1277,13 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F7">
         <f>VLOOKUP(E7,[1]Sheet1!$B$2:$G$17,6,FALSE)</f>
@@ -1294,7 +1298,7 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -1312,7 +1316,7 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -1330,7 +1334,7 @@
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -1348,13 +1352,13 @@
         <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F11">
         <f>VLOOKUP(E11,[1]Sheet1!$B$2:$G$17,6,FALSE)</f>
@@ -1369,13 +1373,13 @@
         <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F12">
         <f>VLOOKUP(E12,[1]Sheet1!$B$2:$G$17,6,FALSE)</f>
@@ -1390,13 +1394,13 @@
         <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F13">
         <f>VLOOKUP(E13,[1]Sheet1!$B$2:$G$17,6,FALSE)</f>
@@ -1411,13 +1415,13 @@
         <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F14">
         <f>VLOOKUP(E14,[1]Sheet1!$B$2:$G$17,6,FALSE)</f>
@@ -1432,13 +1436,13 @@
         <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F15">
         <f>VLOOKUP(E15,[1]Sheet1!$B$2:$G$17,6,FALSE)</f>
@@ -1453,7 +1457,7 @@
         <v>13</v>
       </c>
       <c r="C16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -1471,13 +1475,13 @@
         <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F17">
         <f>VLOOKUP(E17,[1]Sheet1!$B$2:$G$17,6,FALSE)</f>
@@ -1492,13 +1496,13 @@
         <v>15</v>
       </c>
       <c r="C18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D18">
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F18">
         <f>VLOOKUP(E18,[1]Sheet1!$B$2:$G$17,6,FALSE)</f>
@@ -1513,13 +1517,13 @@
         <v>16</v>
       </c>
       <c r="C19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D19">
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19">
         <f>VLOOKUP(E19,[1]Sheet1!$B$2:$G$17,6,FALSE)</f>
@@ -1534,13 +1538,13 @@
         <v>17</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20">
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F20">
         <f>VLOOKUP(E20,[1]Sheet1!$B$2:$G$17,6,FALSE)</f>
@@ -1555,7 +1559,7 @@
         <v>18</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -1573,7 +1577,7 @@
         <v>19</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -1591,7 +1595,7 @@
         <v>20</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -1609,7 +1613,7 @@
         <v>21</v>
       </c>
       <c r="C24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -1624,10 +1628,10 @@
         <v>37</v>
       </c>
       <c r="B25" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C25" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -1642,10 +1646,10 @@
         <v>37</v>
       </c>
       <c r="B26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C26" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -1660,10 +1664,10 @@
         <v>37</v>
       </c>
       <c r="B27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C27" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -1678,10 +1682,10 @@
         <v>37</v>
       </c>
       <c r="B28" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C28" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -1696,10 +1700,10 @@
         <v>37</v>
       </c>
       <c r="B29" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C29" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -1711,62 +1715,59 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B30" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C30" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D30">
         <v>1</v>
       </c>
-      <c r="E30" t="s">
-        <v>39</v>
-      </c>
-      <c r="F30">
+      <c r="F30" t="e">
         <f>VLOOKUP(E30,[1]Sheet1!$B$2:$G$17,6,FALSE)</f>
-        <v>34</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B31" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C31" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D31">
         <v>1</v>
       </c>
-      <c r="E31" t="s">
-        <v>45</v>
-      </c>
-      <c r="F31">
+      <c r="F31" t="e">
         <f>VLOOKUP(E31,[1]Sheet1!$B$2:$G$17,6,FALSE)</f>
-        <v>40</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
+        <v>34</v>
+      </c>
+      <c r="B32" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32" t="s">
+        <v>24</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32" t="s">
         <v>40</v>
       </c>
-      <c r="B32" t="s">
-        <v>18</v>
-      </c>
-      <c r="C32" t="s">
-        <v>25</v>
-      </c>
-      <c r="D32">
-        <v>1</v>
-      </c>
-      <c r="F32" t="e">
+      <c r="F32">
         <f>VLOOKUP(E32,[1]Sheet1!$B$2:$G$17,6,FALSE)</f>
-        <v>#N/A</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1774,17 +1775,20 @@
         <v>40</v>
       </c>
       <c r="B33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C33" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D33">
         <v>1</v>
       </c>
-      <c r="F33" t="e">
+      <c r="E33" t="s">
+        <v>46</v>
+      </c>
+      <c r="F33">
         <f>VLOOKUP(E33,[1]Sheet1!$B$2:$G$17,6,FALSE)</f>
-        <v>#N/A</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -1792,10 +1796,10 @@
         <v>40</v>
       </c>
       <c r="B34" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C34" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D34">
         <v>1</v>
@@ -1810,10 +1814,10 @@
         <v>40</v>
       </c>
       <c r="B35" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C35" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D35">
         <v>1</v>
@@ -1828,10 +1832,10 @@
         <v>40</v>
       </c>
       <c r="B36" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C36" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D36">
         <v>1</v>
@@ -1846,10 +1850,10 @@
         <v>40</v>
       </c>
       <c r="B37" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C37" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D37">
         <v>1</v>
@@ -1864,10 +1868,10 @@
         <v>40</v>
       </c>
       <c r="B38" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C38" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D38">
         <v>1</v>
@@ -1882,10 +1886,10 @@
         <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C39" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D39">
         <v>1</v>
@@ -1900,10 +1904,10 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C40" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D40">
         <v>1</v>
@@ -1915,136 +1919,127 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C41" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D41">
-        <v>2</v>
-      </c>
-      <c r="E41" t="s">
-        <v>30</v>
-      </c>
-      <c r="F41">
-        <f>VLOOKUP(E41,[1]Sheet1!$B$18:$G$33,6,FALSE)</f>
-        <v>41</v>
+        <v>1</v>
+      </c>
+      <c r="F41" t="e">
+        <f>VLOOKUP(E41,[1]Sheet1!$B$2:$G$17,6,FALSE)</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C42" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D42">
-        <v>2</v>
-      </c>
-      <c r="E42" t="s">
-        <v>40</v>
-      </c>
-      <c r="F42">
-        <f>VLOOKUP(E42,[1]Sheet1!$B$18:$G$33,6,FALSE)</f>
-        <v>51</v>
+        <v>1</v>
+      </c>
+      <c r="F42" t="e">
+        <f>VLOOKUP(E42,[1]Sheet1!$B$2:$G$17,6,FALSE)</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="B43" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="C43" t="s">
         <v>25</v>
       </c>
       <c r="D43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F43" t="e">
-        <f>VLOOKUP(E43,[1]Sheet1!$B$18:$G$33,6,FALSE)</f>
+        <f>VLOOKUP(E43,[1]Sheet1!$B$2:$G$17,6,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B44" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C44" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D44">
-        <v>2</v>
-      </c>
-      <c r="E44" t="s">
-        <v>31</v>
-      </c>
-      <c r="F44">
-        <f>VLOOKUP(E44,[1]Sheet1!$B$18:$G$33,6,FALSE)</f>
-        <v>42</v>
+        <v>1</v>
+      </c>
+      <c r="F44" t="e">
+        <f>VLOOKUP(E44,[1]Sheet1!$B$2:$G$17,6,FALSE)</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B45" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C45" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D45">
         <v>2</v>
       </c>
       <c r="E45" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F45">
         <f>VLOOKUP(E45,[1]Sheet1!$B$18:$G$33,6,FALSE)</f>
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B46" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C46" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D46">
         <v>2</v>
       </c>
       <c r="E46" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F46">
         <f>VLOOKUP(E46,[1]Sheet1!$B$18:$G$33,6,FALSE)</f>
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B47" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C47" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D47">
         <v>2</v>
@@ -2056,299 +2051,305 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C48" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D48">
         <v>2</v>
       </c>
-      <c r="F48" t="e">
+      <c r="E48" t="s">
+        <v>32</v>
+      </c>
+      <c r="F48">
         <f>VLOOKUP(E48,[1]Sheet1!$B$18:$G$33,6,FALSE)</f>
-        <v>#N/A</v>
+        <v>42</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B49" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C49" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D49">
         <v>2</v>
       </c>
-      <c r="F49" t="e">
+      <c r="E49" t="s">
+        <v>33</v>
+      </c>
+      <c r="F49">
         <f>VLOOKUP(E49,[1]Sheet1!$B$18:$G$33,6,FALSE)</f>
-        <v>#N/A</v>
+        <v>43</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C50" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D50">
         <v>2</v>
       </c>
       <c r="E50" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F50">
         <f>VLOOKUP(E50,[1]Sheet1!$B$18:$G$33,6,FALSE)</f>
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C51" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D51">
         <v>2</v>
       </c>
-      <c r="E51" t="s">
-        <v>37</v>
-      </c>
-      <c r="F51">
+      <c r="F51" t="e">
         <f>VLOOKUP(E51,[1]Sheet1!$B$18:$G$33,6,FALSE)</f>
-        <v>48</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B52" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C52" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D52">
         <v>2</v>
       </c>
-      <c r="E52" t="s">
-        <v>33</v>
-      </c>
-      <c r="F52">
+      <c r="F52" t="e">
         <f>VLOOKUP(E52,[1]Sheet1!$B$18:$G$33,6,FALSE)</f>
-        <v>44</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B53" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C53" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D53">
         <v>2</v>
       </c>
-      <c r="E53" t="s">
-        <v>36</v>
-      </c>
-      <c r="F53">
+      <c r="F53" t="e">
         <f>VLOOKUP(E53,[1]Sheet1!$B$18:$G$33,6,FALSE)</f>
-        <v>47</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B54" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D54">
         <v>2</v>
       </c>
       <c r="E54" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F54">
         <f>VLOOKUP(E54,[1]Sheet1!$B$18:$G$33,6,FALSE)</f>
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B55" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D55">
         <v>2</v>
       </c>
-      <c r="F55" t="e">
+      <c r="E55" t="s">
+        <v>38</v>
+      </c>
+      <c r="F55">
         <f>VLOOKUP(E55,[1]Sheet1!$B$18:$G$33,6,FALSE)</f>
-        <v>#N/A</v>
+        <v>48</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B56" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C56" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D56">
         <v>2</v>
       </c>
       <c r="E56" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="F56">
         <f>VLOOKUP(E56,[1]Sheet1!$B$18:$G$33,6,FALSE)</f>
-        <v>54</v>
+        <v>44</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B57" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C57" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D57">
         <v>2</v>
       </c>
       <c r="E57" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F57">
         <f>VLOOKUP(E57,[1]Sheet1!$B$18:$G$33,6,FALSE)</f>
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="B58" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C58" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D58">
         <v>2</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="F58">
         <f>VLOOKUP(E58,[1]Sheet1!$B$18:$G$33,6,FALSE)</f>
-        <v>55</v>
+        <v>45</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B59" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C59" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D59">
         <v>2</v>
       </c>
-      <c r="E59" t="s">
-        <v>42</v>
-      </c>
-      <c r="F59">
+      <c r="F59" t="e">
         <f>VLOOKUP(E59,[1]Sheet1!$B$18:$G$33,6,FALSE)</f>
-        <v>53</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B60" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C60" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D60">
         <v>2</v>
       </c>
-      <c r="F60" t="e">
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60">
         <f>VLOOKUP(E60,[1]Sheet1!$B$18:$G$33,6,FALSE)</f>
-        <v>#N/A</v>
+        <v>54</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B61" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C61" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D61">
         <v>2</v>
       </c>
-      <c r="F61" t="e">
+      <c r="E61" t="s">
+        <v>42</v>
+      </c>
+      <c r="F61">
         <f>VLOOKUP(E61,[1]Sheet1!$B$18:$G$33,6,FALSE)</f>
-        <v>#N/A</v>
+        <v>52</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B62" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C62" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D62">
         <v>2</v>
       </c>
-      <c r="F62" t="e">
+      <c r="E62" t="s">
+        <v>45</v>
+      </c>
+      <c r="F62">
         <f>VLOOKUP(E62,[1]Sheet1!$B$18:$G$33,6,FALSE)</f>
-        <v>#N/A</v>
+        <v>55</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -2356,17 +2357,20 @@
         <v>53</v>
       </c>
       <c r="B63" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C63" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D63">
         <v>2</v>
       </c>
-      <c r="F63" t="e">
+      <c r="E63" t="s">
+        <v>43</v>
+      </c>
+      <c r="F63">
         <f>VLOOKUP(E63,[1]Sheet1!$B$18:$G$33,6,FALSE)</f>
-        <v>#N/A</v>
+        <v>53</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -2374,10 +2378,10 @@
         <v>53</v>
       </c>
       <c r="B64" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C64" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D64">
         <v>2</v>
@@ -2392,10 +2396,10 @@
         <v>53</v>
       </c>
       <c r="B65" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C65" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D65">
         <v>2</v>
@@ -2410,10 +2414,10 @@
         <v>53</v>
       </c>
       <c r="B66" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C66" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D66">
         <v>2</v>
@@ -2428,10 +2432,10 @@
         <v>53</v>
       </c>
       <c r="B67" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C67" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D67">
         <v>2</v>
@@ -2446,10 +2450,10 @@
         <v>53</v>
       </c>
       <c r="B68" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C68" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D68">
         <v>2</v>
@@ -2461,52 +2465,46 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B69" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C69" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D69">
         <v>2</v>
       </c>
-      <c r="E69" t="s">
-        <v>39</v>
-      </c>
-      <c r="F69">
+      <c r="F69" t="e">
         <f>VLOOKUP(E69,[1]Sheet1!$B$18:$G$33,6,FALSE)</f>
-        <v>50</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B70" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C70" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D70">
         <v>2</v>
       </c>
-      <c r="E70" t="s">
-        <v>45</v>
-      </c>
-      <c r="F70">
+      <c r="F70" t="e">
         <f>VLOOKUP(E70,[1]Sheet1!$B$18:$G$33,6,FALSE)</f>
-        <v>56</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B71" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C71" t="s">
         <v>25</v>
@@ -2521,10 +2519,10 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B72" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C72" t="s">
         <v>25</v>
@@ -2539,10 +2537,10 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B73" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C73" t="s">
         <v>25</v>
@@ -2557,10 +2555,10 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B74" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C74" t="s">
         <v>25</v>
@@ -2575,10 +2573,10 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B75" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C75" t="s">
         <v>24</v>
@@ -2586,9 +2584,12 @@
       <c r="D75">
         <v>2</v>
       </c>
-      <c r="F75" t="e">
+      <c r="E75" t="s">
+        <v>40</v>
+      </c>
+      <c r="F75">
         <f>VLOOKUP(E75,[1]Sheet1!$B$18:$G$33,6,FALSE)</f>
-        <v>#N/A</v>
+        <v>50</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -2596,7 +2597,7 @@
         <v>56</v>
       </c>
       <c r="B76" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C76" t="s">
         <v>24</v>
@@ -2604,9 +2605,12 @@
       <c r="D76">
         <v>2</v>
       </c>
-      <c r="F76" t="e">
+      <c r="E76" t="s">
+        <v>46</v>
+      </c>
+      <c r="F76">
         <f>VLOOKUP(E76,[1]Sheet1!$B$18:$G$33,6,FALSE)</f>
-        <v>#N/A</v>
+        <v>56</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -2614,10 +2618,10 @@
         <v>56</v>
       </c>
       <c r="B77" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C77" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D77">
         <v>2</v>
@@ -2632,10 +2636,10 @@
         <v>56</v>
       </c>
       <c r="B78" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C78" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D78">
         <v>2</v>
@@ -2650,16 +2654,160 @@
         <v>56</v>
       </c>
       <c r="B79" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C79" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D79">
         <v>2</v>
       </c>
       <c r="F79" t="e">
         <f>VLOOKUP(E79,[1]Sheet1!$B$18:$G$33,6,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>56</v>
+      </c>
+      <c r="B80" t="s">
+        <v>21</v>
+      </c>
+      <c r="C80" t="s">
+        <v>26</v>
+      </c>
+      <c r="D80">
+        <v>2</v>
+      </c>
+      <c r="F80" t="e">
+        <f>VLOOKUP(E80,[1]Sheet1!$B$18:$G$33,6,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>56</v>
+      </c>
+      <c r="B81" t="s">
+        <v>22</v>
+      </c>
+      <c r="C81" t="s">
+        <v>26</v>
+      </c>
+      <c r="D81">
+        <v>2</v>
+      </c>
+      <c r="F81" t="e">
+        <f>VLOOKUP(E81,[1]Sheet1!$B$18:$G$33,6,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>56</v>
+      </c>
+      <c r="B82" t="s">
+        <v>17</v>
+      </c>
+      <c r="C82" t="s">
+        <v>25</v>
+      </c>
+      <c r="D82">
+        <v>2</v>
+      </c>
+      <c r="F82" t="e">
+        <f>VLOOKUP(E82,[1]Sheet1!$B$18:$G$33,6,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>56</v>
+      </c>
+      <c r="B83" t="s">
+        <v>18</v>
+      </c>
+      <c r="C83" t="s">
+        <v>25</v>
+      </c>
+      <c r="D83">
+        <v>2</v>
+      </c>
+      <c r="F83" t="e">
+        <f>VLOOKUP(E83,[1]Sheet1!$B$18:$G$33,6,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>56</v>
+      </c>
+      <c r="B84" t="s">
+        <v>19</v>
+      </c>
+      <c r="C84" t="s">
+        <v>25</v>
+      </c>
+      <c r="D84">
+        <v>2</v>
+      </c>
+      <c r="F84" t="e">
+        <f>VLOOKUP(E84,[1]Sheet1!$B$18:$G$33,6,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>56</v>
+      </c>
+      <c r="B85" t="s">
+        <v>20</v>
+      </c>
+      <c r="C85" t="s">
+        <v>25</v>
+      </c>
+      <c r="D85">
+        <v>2</v>
+      </c>
+      <c r="F85" t="e">
+        <f>VLOOKUP(E85,[1]Sheet1!$B$18:$G$33,6,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>56</v>
+      </c>
+      <c r="B86" t="s">
+        <v>21</v>
+      </c>
+      <c r="C86" t="s">
+        <v>25</v>
+      </c>
+      <c r="D86">
+        <v>2</v>
+      </c>
+      <c r="F86" t="e">
+        <f>VLOOKUP(E86,[1]Sheet1!$B$18:$G$33,6,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>56</v>
+      </c>
+      <c r="B87" t="s">
+        <v>22</v>
+      </c>
+      <c r="C87" t="s">
+        <v>25</v>
+      </c>
+      <c r="D87">
+        <v>2</v>
+      </c>
+      <c r="F87" t="e">
+        <f>VLOOKUP(E87,[1]Sheet1!$B$18:$G$33,6,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
